--- a/C&DQA/Templates/coverDQA.xlsx
+++ b/C&DQA/Templates/coverDQA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alcanada-my.sharepoint.com/personal/koconnor_alcanada_com/Documents/Desktop/A&amp;L/1. CQA, STP Compost/AD/Test Zooshare Feb24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CQA\FULL CQA - DQA\C&amp;DQA\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="14_{57D79669-CFC0-4480-8DEC-8179456A41A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{649C36AF-058E-44A6-8482-F3BD65635AB2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A358761E-7959-4912-BF2F-7C423650FDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>SUMMARY OF ANALYSIS REPORT</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>All analysis of this digestate product was conducted and provided by A&amp;L Canada Laboratories Inc. for the Digestate Quality Assurance</t>
+  </si>
+  <si>
+    <t>Sample</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -507,6 +510,23 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,15 +539,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,23 +569,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -983,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J235"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,45 +999,45 @@
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
     <col min="4" max="4" width="6.140625" customWidth="1"/>
     <col min="7" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -1050,78 +1055,77 @@
       <c r="A7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="50"/>
+      <c r="G7" s="52"/>
       <c r="H7" s="29"/>
       <c r="I7" s="24"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="11"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="23"/>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="23"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="53"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="36"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -1129,51 +1133,50 @@
       <c r="E12" s="11"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="36">
+      <c r="G13" s="52"/>
+      <c r="H13" s="34">
         <v>44574</v>
       </c>
-      <c r="I13" s="37"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="35">
+      <c r="G14" s="52"/>
+      <c r="H14" s="33">
         <v>44589</v>
       </c>
-      <c r="I14" s="35"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -1206,50 +1209,50 @@
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="61"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27" t="s">
         <v>9</v>
@@ -1261,71 +1264,71 @@
       <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
     </row>
     <row r="23" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="40" t="s">
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="40"/>
+      <c r="I24" s="44"/>
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="39" t="s">
+      <c r="B25" s="46"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="39"/>
+      <c r="I25" s="43"/>
     </row>
     <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="41" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="41"/>
+      <c r="I26" s="45"/>
     </row>
     <row r="27" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
@@ -1339,67 +1342,67 @@
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1448,19 +1451,19 @@
       <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="60" t="s">
+      <c r="F37" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1480,20 +1483,20 @@
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
-      <c r="F39" s="51" t="s">
+      <c r="F39" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="17"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -1502,9 +1505,9 @@
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
       <c r="E41" s="17"/>
       <c r="F41" s="11"/>
       <c r="G41" s="18"/>
@@ -1513,9 +1516,9 @@
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
       <c r="E42" s="17"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -1561,29 +1564,29 @@
       <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
       <c r="J46" s="8"/>
     </row>
     <row r="47" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
@@ -3655,10 +3658,11 @@
       <c r="I235" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="30">
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="F39:I39"/>
     <mergeCell ref="A28:I30"/>
-    <mergeCell ref="H10:I12"/>
     <mergeCell ref="A31:I32"/>
     <mergeCell ref="C22:I23"/>
     <mergeCell ref="C25:G25"/>
@@ -3669,21 +3673,10 @@
     <mergeCell ref="F37:I37"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B9:E9"/>
     <mergeCell ref="D1:F3"/>
     <mergeCell ref="A46:I47"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="B18:I19"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H13:I13"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H24:I24"/>
@@ -3693,7 +3686,9 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
